--- a/tut05/output/0401EE04.xlsx
+++ b/tut05/output/0401EE04.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.122448979591836</v>
+        <v>5.12</v>
       </c>
       <c r="C6" t="n">
-        <v>4.818181818181818</v>
+        <v>4.82</v>
       </c>
       <c r="D6" t="n">
-        <v>6.152173913043478</v>
+        <v>6.15</v>
       </c>
       <c r="E6" t="n">
-        <v>5.434782608695652</v>
+        <v>5.43</v>
       </c>
       <c r="F6" t="n">
-        <v>5.230769230769231</v>
+        <v>5.23</v>
       </c>
       <c r="G6" t="n">
         <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.930232558139535</v>
+        <v>5.93</v>
       </c>
       <c r="I6" t="n">
-        <v>5.736842105263158</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.122448979591836</v>
+        <v>5.12</v>
       </c>
       <c r="C8" t="n">
-        <v>4.978494623655914</v>
+        <v>4.98</v>
       </c>
       <c r="D8" t="n">
-        <v>5.366906474820144</v>
+        <v>5.37</v>
       </c>
       <c r="E8" t="n">
-        <v>5.383783783783784</v>
+        <v>5.38</v>
       </c>
       <c r="F8" t="n">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
       <c r="G8" t="n">
-        <v>5.393939393939394</v>
+        <v>5.39</v>
       </c>
       <c r="H8" t="n">
-        <v>5.469055374592834</v>
+        <v>5.47</v>
       </c>
       <c r="I8" t="n">
-        <v>5.498550724637681</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
